--- a/benchmark/data/OfficeBldgs_Benchmark.xlsx
+++ b/benchmark/data/OfficeBldgs_Benchmark.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA_Repo\benchmark\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\05_LCA\benchmark\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E3F74-B934-453B-BC47-93BF9F2A201B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822CA5B6-5A7F-4B8C-8BB0-0F5618C8A2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1CC61374-E2B3-4FBC-AA32-BD376F26C049}"/>
+    <workbookView xWindow="30" yWindow="930" windowWidth="28770" windowHeight="15270" activeTab="1" xr2:uid="{1CC61374-E2B3-4FBC-AA32-BD376F26C049}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmark_BXL" sheetId="1" r:id="rId1"/>
-    <sheet name="Benchmark_PARIS" sheetId="4" r:id="rId2"/>
-    <sheet name="DDU" sheetId="3" r:id="rId3"/>
+    <sheet name="BXL_2013" sheetId="6" r:id="rId2"/>
+    <sheet name="Benchmark_PARIS" sheetId="4" r:id="rId3"/>
+    <sheet name="DDU" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Benchmark_PARIS!$A$35</definedName>
@@ -46,6 +47,64 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>jean</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{910F16C5-FBE6-43AD-9D9E-DA38B3149C49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jean:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ICEDD, "Bilan énergétique de la région de Bruxelles-Capitale 2012", 2014, p. 123</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1B861C18-CDA0-4E75-A897-D1A7D8F2CF7F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jean:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ICEDD, "Bilan énergétique de la région de Bruxelles-Capitale 2012", 2014, p. 123</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>jean</author>
@@ -93,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="108">
   <si>
     <t>City</t>
   </si>
@@ -408,6 +467,15 @@
   </si>
   <si>
     <t>fuel, kWh/m²</t>
+  </si>
+  <si>
+    <t>area, m²</t>
+  </si>
+  <si>
+    <t>fuel, MWh</t>
+  </si>
+  <si>
+    <t>electricity, MWh</t>
   </si>
 </sst>
 </file>
@@ -1638,11 +1706,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735FECA-0909-45A6-9D93-3F697C19B8C6}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" sqref="A1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,25 +3370,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H42" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="33">
-        <f>AVERAGE(I2:I40)</f>
-        <v>88.720289629170153</v>
-      </c>
-      <c r="J42" s="33">
-        <f>AVERAGE(J2:J40)</f>
-        <v>101.21503285812553</v>
-      </c>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C44" s="29"/>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C45" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3330,6 +3388,1154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD964AA-B3F1-40AA-9437-6EDBA726E8CC}">
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1980</v>
+      </c>
+      <c r="C2" s="26">
+        <v>293</v>
+      </c>
+      <c r="D2" s="9">
+        <f>C2/B2*1000</f>
+        <v>147.97979797979798</v>
+      </c>
+      <c r="E2" s="26">
+        <v>212</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2/B2*1000</f>
+        <v>107.07070707070707</v>
+      </c>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>162</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D47" si="0">C3/B3*1000</f>
+        <v>81</v>
+      </c>
+      <c r="E3">
+        <v>260</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F47" si="1">E3/B3*1000</f>
+        <v>130</v>
+      </c>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C4">
+        <v>96</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>480</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <f>2000+3*40</f>
+        <v>2120</v>
+      </c>
+      <c r="C5">
+        <v>399</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>188.20754716981133</v>
+      </c>
+      <c r="E5">
+        <v>435</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>205.18867924528303</v>
+      </c>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <f>2000+8*40-10</f>
+        <v>2310</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>53.246753246753244</v>
+      </c>
+      <c r="E6">
+        <v>340</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>147.1861471861472</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <f>2000+12*40</f>
+        <v>2480</v>
+      </c>
+      <c r="C7">
+        <v>110</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>44.354838709677423</v>
+      </c>
+      <c r="E7">
+        <v>165</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>66.532258064516128</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <f>2000+13*40</f>
+        <v>2520</v>
+      </c>
+      <c r="C8">
+        <v>423</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>167.85714285714283</v>
+      </c>
+      <c r="E8">
+        <v>436</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>173.01587301587301</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <f>2000+17*40</f>
+        <v>2680</v>
+      </c>
+      <c r="C9">
+        <v>478</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>178.35820895522389</v>
+      </c>
+      <c r="E9">
+        <v>515</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>192.16417910447763</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <f>2000+36*40</f>
+        <v>3440</v>
+      </c>
+      <c r="C10">
+        <v>293</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>85.174418604651166</v>
+      </c>
+      <c r="E10">
+        <v>500</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>145.34883720930233</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <f>2000+42.5*40</f>
+        <v>3700</v>
+      </c>
+      <c r="C11">
+        <v>149</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>40.270270270270267</v>
+      </c>
+      <c r="E11">
+        <v>255</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>68.918918918918919</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <f>2000+44*40</f>
+        <v>3760</v>
+      </c>
+      <c r="C12">
+        <v>242</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>64.361702127659569</v>
+      </c>
+      <c r="E12">
+        <v>307</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>81.648936170212764</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <f>4000-3.5*40</f>
+        <v>3860</v>
+      </c>
+      <c r="C13">
+        <v>242</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>62.69430051813471</v>
+      </c>
+      <c r="E13">
+        <v>483</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>125.12953367875649</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <f>4000-3*40</f>
+        <v>3880</v>
+      </c>
+      <c r="C14">
+        <v>465</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>119.84536082474227</v>
+      </c>
+      <c r="E14">
+        <v>253</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>65.206185567010309</v>
+      </c>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C15">
+        <v>110</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="E15">
+        <v>572</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <f>4000+3*40</f>
+        <v>4120</v>
+      </c>
+      <c r="C16">
+        <v>254</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>61.650485436893206</v>
+      </c>
+      <c r="E16">
+        <v>700</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>169.90291262135923</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <f>4000+4.5*40</f>
+        <v>4180</v>
+      </c>
+      <c r="C17">
+        <v>346</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>82.775119617224874</v>
+      </c>
+      <c r="E17">
+        <v>560</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>133.97129186602871</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <f>4000+4.5*40</f>
+        <v>4180</v>
+      </c>
+      <c r="C18">
+        <v>794</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>189.95215311004785</v>
+      </c>
+      <c r="E18">
+        <v>477</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>114.11483253588517</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
+        <f>4000+5.25*40</f>
+        <v>4210</v>
+      </c>
+      <c r="C19">
+        <v>715</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>169.83372921615202</v>
+      </c>
+      <c r="E19">
+        <v>510</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>121.14014251781472</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8">
+        <f>4000+6.8*40</f>
+        <v>4272</v>
+      </c>
+      <c r="C20">
+        <v>254</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>59.456928838951313</v>
+      </c>
+      <c r="E20">
+        <v>660</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="1"/>
+        <v>154.49438202247191</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8">
+        <f>4000+9.5*40</f>
+        <v>4380</v>
+      </c>
+      <c r="C21">
+        <v>308</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>70.319634703196343</v>
+      </c>
+      <c r="E21">
+        <v>843</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>192.46575342465752</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
+        <f>4000+12*40</f>
+        <v>4480</v>
+      </c>
+      <c r="C22">
+        <v>242</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>54.017857142857146</v>
+      </c>
+      <c r="E22">
+        <v>558</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>124.55357142857143</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8">
+        <f>4000+15.5*40</f>
+        <v>4620</v>
+      </c>
+      <c r="C23">
+        <v>255</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>55.194805194805191</v>
+      </c>
+      <c r="E23">
+        <v>422</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>91.341991341991331</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8">
+        <f>4000+16*40</f>
+        <v>4640</v>
+      </c>
+      <c r="C24">
+        <v>1070</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>230.60344827586206</v>
+      </c>
+      <c r="E24">
+        <v>551</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="1"/>
+        <v>118.75</v>
+      </c>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8">
+        <f>4000+19.5*40</f>
+        <v>4780</v>
+      </c>
+      <c r="C25">
+        <v>596</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>124.68619246861924</v>
+      </c>
+      <c r="E25">
+        <v>572</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>119.6652719665272</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <f>4000+24*40</f>
+        <v>4960</v>
+      </c>
+      <c r="C26">
+        <v>254</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>51.20967741935484</v>
+      </c>
+      <c r="E26">
+        <v>748</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>150.80645161290323</v>
+      </c>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8">
+        <f>4000+25.5*40</f>
+        <v>5020</v>
+      </c>
+      <c r="C27">
+        <v>242</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>48.207171314741039</v>
+      </c>
+      <c r="E27">
+        <v>578</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>115.13944223107569</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8">
+        <f>4000+31.5*40</f>
+        <v>5260</v>
+      </c>
+      <c r="C28">
+        <v>637</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="0"/>
+        <v>121.10266159695817</v>
+      </c>
+      <c r="E28">
+        <v>897</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>170.53231939163499</v>
+      </c>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8">
+        <f>4000+37*40</f>
+        <v>5480</v>
+      </c>
+      <c r="C29">
+        <v>754</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="0"/>
+        <v>137.5912408759124</v>
+      </c>
+      <c r="E29">
+        <v>287</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>52.372262773722632</v>
+      </c>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8">
+        <f>4000+37.5*40</f>
+        <v>5500</v>
+      </c>
+      <c r="C30">
+        <v>123</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>22.363636363636363</v>
+      </c>
+      <c r="E30">
+        <v>443</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>80.545454545454547</v>
+      </c>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8">
+        <f>6000-10*40</f>
+        <v>5600</v>
+      </c>
+      <c r="C31">
+        <v>859</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>153.39285714285714</v>
+      </c>
+      <c r="E31">
+        <v>1040</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
+        <v>185.71428571428572</v>
+      </c>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8">
+        <v>6000</v>
+      </c>
+      <c r="C32">
+        <v>520</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E32">
+        <v>714</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8">
+        <f>6000+3*40</f>
+        <v>6120</v>
+      </c>
+      <c r="C33">
+        <v>938</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>153.26797385620915</v>
+      </c>
+      <c r="E33">
+        <v>388</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="1"/>
+        <v>63.398692810457511</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8">
+        <f>6000+12*40</f>
+        <v>6480</v>
+      </c>
+      <c r="C34">
+        <v>1464</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="0"/>
+        <v>225.92592592592592</v>
+      </c>
+      <c r="E34">
+        <v>600</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>92.592592592592581</v>
+      </c>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8">
+        <f>6000+12*40</f>
+        <v>6480</v>
+      </c>
+      <c r="C35">
+        <v>715</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="0"/>
+        <v>110.33950617283951</v>
+      </c>
+      <c r="E35">
+        <v>1243</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="1"/>
+        <v>191.82098765432099</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8">
+        <f>6000+18.5*40</f>
+        <v>6740</v>
+      </c>
+      <c r="C36">
+        <v>1175</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="0"/>
+        <v>174.33234421364986</v>
+      </c>
+      <c r="E36">
+        <v>985</v>
+      </c>
+      <c r="F36" s="9">
+        <f t="shared" si="1"/>
+        <v>146.14243323442136</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8">
+        <f>6000+22*40</f>
+        <v>6880</v>
+      </c>
+      <c r="C37">
+        <v>1043</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="0"/>
+        <v>151.5988372093023</v>
+      </c>
+      <c r="E37">
+        <v>294</v>
+      </c>
+      <c r="F37" s="9">
+        <f t="shared" si="1"/>
+        <v>42.732558139534881</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8">
+        <f>8000-6*40</f>
+        <v>7760</v>
+      </c>
+      <c r="C38">
+        <v>597</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="0"/>
+        <v>76.932989690721655</v>
+      </c>
+      <c r="E38">
+        <v>646</v>
+      </c>
+      <c r="F38" s="9">
+        <f t="shared" si="1"/>
+        <v>83.24742268041237</v>
+      </c>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8">
+        <f>8000+4*40</f>
+        <v>8160</v>
+      </c>
+      <c r="C39">
+        <v>215</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="0"/>
+        <v>26.348039215686274</v>
+      </c>
+      <c r="E39">
+        <v>599</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="1"/>
+        <v>73.406862745098039</v>
+      </c>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8">
+        <f>8000+7.5*40</f>
+        <v>8300</v>
+      </c>
+      <c r="C40">
+        <v>688</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="0"/>
+        <v>82.891566265060234</v>
+      </c>
+      <c r="E40">
+        <v>857</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="1"/>
+        <v>103.25301204819277</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8">
+        <f>8000+10*40</f>
+        <v>8400</v>
+      </c>
+      <c r="C41">
+        <v>754</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="0"/>
+        <v>89.761904761904759</v>
+      </c>
+      <c r="E41">
+        <v>694</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="1"/>
+        <v>82.61904761904762</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8">
+        <f>8000+14*40</f>
+        <v>8560</v>
+      </c>
+      <c r="C42">
+        <v>2360</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="0"/>
+        <v>275.70093457943921</v>
+      </c>
+      <c r="E42">
+        <v>1190</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="1"/>
+        <v>139.01869158878506</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8">
+        <f>8000+16*40</f>
+        <v>8640</v>
+      </c>
+      <c r="C43">
+        <v>267</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="0"/>
+        <v>30.902777777777779</v>
+      </c>
+      <c r="E43">
+        <v>504</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="1"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8">
+        <f>10000-20*40</f>
+        <v>9200</v>
+      </c>
+      <c r="C44">
+        <v>1255</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="0"/>
+        <v>136.41304347826085</v>
+      </c>
+      <c r="E44">
+        <v>1019</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="1"/>
+        <v>110.76086956521739</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8">
+        <f>10000-7*40</f>
+        <v>9720</v>
+      </c>
+      <c r="C45">
+        <v>1833</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="0"/>
+        <v>188.58024691358025</v>
+      </c>
+      <c r="E45">
+        <v>626</v>
+      </c>
+      <c r="F45" s="9">
+        <f t="shared" si="1"/>
+        <v>64.403292181069972</v>
+      </c>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>45</v>
+      </c>
+      <c r="B46" s="8">
+        <f>10000-4*40</f>
+        <v>9840</v>
+      </c>
+      <c r="C46">
+        <v>820</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="0"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="E46">
+        <v>837</v>
+      </c>
+      <c r="F46" s="9">
+        <f t="shared" si="1"/>
+        <v>85.060975609756099</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8">
+        <f>10000-3*40</f>
+        <v>9880</v>
+      </c>
+      <c r="C47">
+        <v>3372</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="0"/>
+        <v>341.29554655870447</v>
+      </c>
+      <c r="E47">
+        <v>1385</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="1"/>
+        <v>140.18218623481781</v>
+      </c>
+      <c r="G47" s="8"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B47">
+    <sortCondition ref="B2:B47"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB379CA-9A64-41DE-8BF9-CC826867847C}">
   <dimension ref="A3:AP97"/>
   <sheetViews>
@@ -5696,7 +6902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3BFA8A-016B-4C38-867A-F061F6C32952}">
   <dimension ref="D2:I17"/>
   <sheetViews>
